--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -350,15 +350,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2222222</v>
       </c>
     </row>
   </sheetData>
